--- a/codeTesting/topAns_Analysis_surrounding_atoms.xlsx
+++ b/codeTesting/topAns_Analysis_surrounding_atoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samda\.spyder-py3\PoreCalculatorFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samda\.spyder-py3\PoreCalculatorFiles\codeTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1ECCCCF9-AA6B-46A8-91AF-1CB1D89D5213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D62D02-7092-43F0-ABA9-7299F7F31088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="0" windowWidth="25155" windowHeight="15585"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topAns_Analysis_surrounding_ato" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,6 +764,4877 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame 112</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.158284015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1568099420000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.938963749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8698987200000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8673195429999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8547516239999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6899432139999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5839698379999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34.018051540000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.614271690000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.11262018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.783372559999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.690527770000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.325805959999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.349590679999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.482208100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E42-47AB-8444-7D88EF7A9561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1095208575"/>
+        <c:axId val="1095209055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1095208575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095209055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1095209055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095208575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame 117</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$H$33:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7014136770000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6972438699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5797443179999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5263311960000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2888746470000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.880573171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$K$33:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.136578280000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.065265259999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.401725450000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.201853319999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.189354219999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.266160640000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8DF-4FC2-9C16-4AAE425D1267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2059556559"/>
+        <c:axId val="1105214799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2059556559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1105214799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1105214799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059556559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame 119</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$H$47:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9834361079999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.712746536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7114039839999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.256318056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1104967120000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$K$47:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.906722199999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.975819649999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.844857240000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.934137139999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.267341729999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98CC-4DEC-8CC8-9A0E04551EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="32872271"/>
+        <c:axId val="32878031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="32872271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Radius</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Å</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32878031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="32878031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Z Height (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Å</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32872271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame 120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$H$51:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.256318056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1104967120000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1047614970000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0857874170000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.078200888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0688408759999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0041967820000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7322314080000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5504220430000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$K$51:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>34.934137139999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.267341729999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.902770259999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.715854110000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.188943190000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.927245409999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.506589589999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.150355750000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.943239030000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88FD-4892-BAF5-B85511810C45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116180207"/>
+        <c:axId val="116180687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116180207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116180687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116180687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116180207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$H$44:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7283365709999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6793156420000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9958874359999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9834361079999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.712746536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7114039839999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>topAns_Analysis_surrounding_ato!$K$44:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.155977219999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.291859049999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.704338190000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.906722199999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.975819649999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.844857240000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DED-4EA8-952E-9439D182E1C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="32878991"/>
+        <c:axId val="32867951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="32878991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32867951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="32867951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32878991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F3A6F4-0D34-25E7-00B9-7CF9A1B5A3E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B382AF6-D57E-7B54-83AE-7A795FA1B3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91956C48-0A96-F7C3-7192-E760B96810A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECC1178-538C-B350-8676-CA15DFBC6D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>398462</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>93662</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D246DE52-7F54-C420-1D5E-BA35F1F83DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1080,12 +5951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L229" sqref="L229"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34610,11 +39481,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE299"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
